--- a/前端练习.xlsx
+++ b/前端练习.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15295\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\springtest\skillup-yangjian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{058FE80E-A90A-4855-A10C-10B06A765B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C01A6E-E53D-42C6-AD40-776E5FAAAF80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24375" yWindow="5010" windowWidth="13365" windowHeight="14805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5625" yWindow="3075" windowWidth="13365" windowHeight="14805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,21 +95,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>312</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>115177</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>124499</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>25884</xdr:colOff>
+      <xdr:row>338</xdr:row>
+      <xdr:rowOff>101518</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9150F04-F98C-C1DE-D8B2-6DBFACF00CB8}"/>
+        <xdr:cNvPr id="47" name="图片 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC4794B6-C640-4731-E76A-471C22D3E3B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -125,8 +125,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="723900"/>
-          <a:ext cx="6287377" cy="4829849"/>
+          <a:off x="683559" y="55939765"/>
+          <a:ext cx="4810796" cy="4763165"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -135,25 +135,201 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>284</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>16358</xdr:colOff>
+      <xdr:row>310</xdr:row>
+      <xdr:rowOff>91991</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="图片 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFB7B114-19A0-21C6-029E-6A873D5C87DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="683559" y="50919529"/>
+          <a:ext cx="4801270" cy="4753638"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>16358</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>82465</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B2E9692-EEC5-C7EB-8029-722078100F98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="683559" y="537882"/>
+          <a:ext cx="4801270" cy="4744112"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>44937</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>111044</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F494D459-B67F-1F90-1225-6E7BE07623F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="683559" y="5558118"/>
+          <a:ext cx="4829849" cy="4772691"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>671338</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>72939</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC3ADE96-CC91-2D4C-0A1E-465FB60BF6BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="683559" y="10578353"/>
+          <a:ext cx="4772691" cy="4734586"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>661147</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="矩形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F95B783-C6FE-F3DC-CB35-F08519BC02A3}"/>
+        <xdr:cNvPr id="20" name="矩形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF401379-E743-7654-C75E-290CB4FE8C2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -161,14 +337,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2981325" y="3533775"/>
-          <a:ext cx="828675" cy="314325"/>
+          <a:off x="2734235" y="2185147"/>
+          <a:ext cx="661147" cy="313765"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln w="28575">
+        <a:ln w="19050">
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
@@ -201,113 +377,25 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>124704</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>76867</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B0F362A-6175-70E8-2B6B-53504646A65E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685800" y="5791200"/>
-          <a:ext cx="6296904" cy="4782217"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>86598</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>29236</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1734D7F-9E49-1B5E-906E-CB94FDCE1E30}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685800" y="10858500"/>
-          <a:ext cx="6258798" cy="4734586"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>302560</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:colOff>358589</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>168088</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="矩形 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01124DD5-8C49-4710-9F94-C9CA6C7B9BC4}"/>
+        <xdr:cNvPr id="21" name="矩形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29C25A0D-455F-4277-A50D-FEF981A7ACD9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -315,14 +403,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2886075" y="8896350"/>
-          <a:ext cx="1000125" cy="314325"/>
+          <a:off x="2353236" y="8639735"/>
+          <a:ext cx="739588" cy="313765"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln w="28575">
+        <a:ln w="19050">
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
@@ -357,23 +445,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123265</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>425824</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="矩形 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A1AC417-2967-4D0F-97D6-40377E36FC64}"/>
+        <xdr:cNvPr id="22" name="矩形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFC32AAE-150B-4440-80D9-FB54670AD64E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -381,14 +469,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2971800" y="13630275"/>
-          <a:ext cx="828675" cy="314325"/>
+          <a:off x="2173941" y="13951323"/>
+          <a:ext cx="986118" cy="313765"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln w="28575">
+        <a:ln w="19050">
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
@@ -425,21 +513,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>96125</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>38762</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>44937</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>111044</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="图片 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E956D4D-50E9-D4EF-F7A1-4FCD13EFB2F5}"/>
+        <xdr:cNvPr id="25" name="图片 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{582B12DD-2758-4901-874D-869AD969D169}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -455,8 +543,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="15925800"/>
-          <a:ext cx="6268325" cy="4744112"/>
+          <a:off x="683559" y="15598588"/>
+          <a:ext cx="4829849" cy="4772691"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -467,23 +555,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>302560</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>358589</xdr:colOff>
       <xdr:row>105</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>168088</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="矩形 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71FF90CA-0A75-4CC7-9337-8A221DB9A4E0}"/>
+        <xdr:cNvPr id="26" name="矩形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCBE0AC7-7C08-46C9-A107-8141D766DE62}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -491,14 +579,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3905250" y="19002375"/>
-          <a:ext cx="828675" cy="314325"/>
+          <a:off x="2353236" y="18680205"/>
+          <a:ext cx="739588" cy="313765"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln w="28575">
+        <a:ln w="19050">
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
@@ -535,21 +623,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>86598</xdr:colOff>
-      <xdr:row>142</xdr:row>
-      <xdr:rowOff>29236</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>671338</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>72939</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="图片 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1561B87-FA6D-4BC0-99ED-7E2F5B1E728A}"/>
+        <xdr:cNvPr id="27" name="图片 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42F14B98-AA87-44B1-A060-9597C5458304}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -558,15 +646,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="683559" y="20798118"/>
-          <a:ext cx="6238627" cy="4690883"/>
+          <a:off x="683559" y="20618824"/>
+          <a:ext cx="4772691" cy="4734586"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -578,22 +666,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>369794</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>672353</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="矩形 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2A31057-B38F-4847-8530-D5EEA2C13A68}"/>
+        <xdr:cNvPr id="28" name="矩形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{946BA4E6-2EBB-40B5-BD94-26E25AAFF3F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -601,14 +689,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2990850" y="23774400"/>
-          <a:ext cx="828675" cy="314325"/>
+          <a:off x="3104029" y="24025412"/>
+          <a:ext cx="986118" cy="313765"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln w="28575">
+        <a:ln w="19050">
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
@@ -649,17 +737,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>96125</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>44937</xdr:colOff>
       <xdr:row>170</xdr:row>
-      <xdr:rowOff>38762</xdr:rowOff>
+      <xdr:rowOff>111044</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="图片 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7B0FF4C-CDB9-400F-BA6D-2D430D3A4B6D}"/>
+        <xdr:cNvPr id="29" name="图片 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DE11CD3-25FB-48AD-B5DA-BFFB79E17436}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -675,8 +763,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="692727" y="24938182"/>
-          <a:ext cx="6330671" cy="4541489"/>
+          <a:off x="683559" y="25818353"/>
+          <a:ext cx="4829849" cy="4772691"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -687,23 +775,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>212913</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>201706</xdr:colOff>
-      <xdr:row>162</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>344581</xdr:colOff>
+      <xdr:colOff>448236</xdr:colOff>
       <xdr:row>164</xdr:row>
-      <xdr:rowOff>53229</xdr:rowOff>
+      <xdr:rowOff>123265</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="矩形 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20415859-EF8A-4F95-B46C-754009CDF50C}"/>
+        <xdr:cNvPr id="30" name="矩形 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEBD15FF-56AF-4A4F-BFA0-3FD2D500E30A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -711,14 +799,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2935941" y="29146500"/>
-          <a:ext cx="826434" cy="310964"/>
+          <a:off x="2263589" y="29213735"/>
+          <a:ext cx="918882" cy="313765"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln w="28575">
+        <a:ln w="19050">
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
@@ -759,17 +847,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>135348</xdr:colOff>
-      <xdr:row>199</xdr:row>
-      <xdr:rowOff>7961</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>680864</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>25307</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="图片 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A837E49-BF23-BF1B-BA6F-CDD805B9F7CD}"/>
+        <xdr:cNvPr id="31" name="图片 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85B5D0EB-F475-771D-CD6F-91BA5774DEB0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -778,7 +866,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -786,7 +874,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="683559" y="30838588"/>
-          <a:ext cx="6287377" cy="4848902"/>
+          <a:ext cx="4782217" cy="4686954"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -797,23 +885,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>448235</xdr:colOff>
-      <xdr:row>190</xdr:row>
-      <xdr:rowOff>134470</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>44822</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>168089</xdr:colOff>
       <xdr:row>192</xdr:row>
-      <xdr:rowOff>86845</xdr:rowOff>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>403412</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="矩形 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2171885-C6A5-4897-8480-750B902D59C1}"/>
+        <xdr:cNvPr id="32" name="矩形 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EFC206D-0A88-485A-A2FF-7B35A8A7459D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -821,14 +909,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3866029" y="34200352"/>
-          <a:ext cx="963705" cy="310964"/>
+          <a:off x="2218765" y="34446882"/>
+          <a:ext cx="918882" cy="313765"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln w="28575">
+        <a:ln w="19050">
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
@@ -869,17 +957,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>154401</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>25884</xdr:colOff>
       <xdr:row>226</xdr:row>
-      <xdr:rowOff>139623</xdr:rowOff>
+      <xdr:rowOff>91991</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="图片 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{429E8201-BB7D-565F-41C1-35BCF6890409}"/>
+        <xdr:cNvPr id="33" name="图片 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{877C7221-3105-A5EB-481E-5402B03F19AD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -888,7 +976,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -896,7 +984,645 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="683559" y="35858824"/>
-          <a:ext cx="6306430" cy="4801270"/>
+          <a:ext cx="4810796" cy="4753638"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>414618</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>649941</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="矩形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CB9C969-9A83-49C0-9AF6-BA6FC1BE954F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3148853" y="39209382"/>
+          <a:ext cx="918882" cy="313765"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>25884</xdr:colOff>
+      <xdr:row>254</xdr:row>
+      <xdr:rowOff>82465</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="图片 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24D34BD8-1E78-4603-59FD-3032E655C106}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="683559" y="40879059"/>
+          <a:ext cx="4810796" cy="4744112"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>403412</xdr:colOff>
+      <xdr:row>248</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>638735</xdr:colOff>
+      <xdr:row>250</xdr:row>
+      <xdr:rowOff>22413</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="矩形 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C66344B-99B4-494F-AB68-9FB39FDD75E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3137647" y="44532177"/>
+          <a:ext cx="918882" cy="313765"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>256</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>35411</xdr:colOff>
+      <xdr:row>282</xdr:row>
+      <xdr:rowOff>91991</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="图片 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A29A0B2-5FEE-CEFB-51B4-3AD5B4DA117B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="683559" y="45899294"/>
+          <a:ext cx="4820323" cy="4753638"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>369794</xdr:colOff>
+      <xdr:row>296</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>280147</xdr:colOff>
+      <xdr:row>300</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="矩形 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E61E5604-A806-44BC-B8F4-2C8E62451F91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2420470" y="53171912"/>
+          <a:ext cx="593912" cy="739588"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>179296</xdr:colOff>
+      <xdr:row>300</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>336177</xdr:colOff>
+      <xdr:row>302</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="矩形 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{929C2496-CB7B-4C1F-8F01-65BFC0F07F0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2913531" y="53945118"/>
+          <a:ext cx="840440" cy="347382"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>224117</xdr:colOff>
+      <xdr:row>319</xdr:row>
+      <xdr:rowOff>179293</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>380998</xdr:colOff>
+      <xdr:row>321</xdr:row>
+      <xdr:rowOff>168087</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="矩形 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE6F33E2-8E07-4883-BBBE-0DCA92158E4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4325470" y="57374117"/>
+          <a:ext cx="840440" cy="347382"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>340</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>6832</xdr:colOff>
+      <xdr:row>366</xdr:row>
+      <xdr:rowOff>91991</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="图片 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{560671DE-C8A3-1827-26E1-1DEF04541B1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="683559" y="60960000"/>
+          <a:ext cx="4791744" cy="4753638"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>302558</xdr:colOff>
+      <xdr:row>357</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>459439</xdr:colOff>
+      <xdr:row>358</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="矩形 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69C957E9-269B-478A-A01C-A9A06C44521F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2353234" y="64008000"/>
+          <a:ext cx="840440" cy="347382"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>302559</xdr:colOff>
+      <xdr:row>273</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>459440</xdr:colOff>
+      <xdr:row>275</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="矩形 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2B80BE0-D7EB-4C20-B68D-998EBE8E06BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2353235" y="48958500"/>
+          <a:ext cx="840440" cy="347382"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>368</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>54463</xdr:colOff>
+      <xdr:row>394</xdr:row>
+      <xdr:rowOff>101518</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="图片 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFF74EBA-2913-E58F-DDEE-8AB3F7239C90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="683559" y="65980235"/>
+          <a:ext cx="4839375" cy="4763165"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1159,7 +1885,40 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </a:spPr>
+      <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+      <a:lstStyle>
+        <a:defPPr algn="l">
+          <a:defRPr sz="1100"/>
+        </a:defPPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
@@ -1174,7 +1933,7 @@
   <dimension ref="B3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L224" sqref="L224"/>
+      <selection activeCell="K371" sqref="K371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
